--- a/config/Testcases/SmokeTestData.xlsx
+++ b/config/Testcases/SmokeTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E50B0316-685A-4494-AB5D-EF088B754DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{588F32F1-C408-4CA7-8CEB-5A3F8367B3D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="7584" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="11508" windowHeight="10980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:F24"/>
+  <oleSize ref="A3:I15"/>
 </workbook>
 </file>
 
@@ -580,7 +580,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964692C-ACEF-4FB4-BE4A-BBF9D9D1FEEF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
